--- a/data/long_razon/P24_7-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_7-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 98,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 105,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 45,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 23,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 52,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 37,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 166,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 106,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,31; 33,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 105,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 73,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 86,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>104,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-22,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 672,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-57,14; 98,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-62,49; 55,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 140,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 92,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 86,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 94,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 70,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 23,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 41,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 43,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 43,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_7-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_7-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +787,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1212,14 +913,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_7-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_7-Urba-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.2853823900610022</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3314476264607339</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.088086098986734</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.7317735234275995</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.1028125761928103</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.05170772013431763</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.695188881919683</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.3385813947135922</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.1759567882177624</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.0866384886141056</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>1.376953732327835</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.5159638881175505</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.1361333977545026</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1006278723889293</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.3994019275648907</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.1715925421288753</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1806524516818452</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3032166214463984</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.8622579718453133</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.07628790784348344</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.09704154681287037</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.1223898690395956</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.8466080206132877</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.121310064389576</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.138355985643063</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.027009237577285</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.10349996402313</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.574732730593337</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.4874122871110364</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.24876844589072</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.898664889793778</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.9105639178961258</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.5007020522324036</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.3846099400539717</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>2.135856430858373</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.936492363951118</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.408659331057718</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3229040205356448</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.0634498581329649</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.5466354680595576</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.1255503393328153</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.4112459513259421</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.628374951372548</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>1.090775599378429</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.1086708092750107</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.3616965900212001</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.5903299011151882</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.7950381088230569</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.1856015948064641</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1106851734428044</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3887650244737625</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2445878352544129</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4483925133133507</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.03092864133934685</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.8338082391846384</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.02074426975572377</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2185815803453886</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.02629642568274706</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.1800110202484781</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.08761210526683576</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>1.750087281229936</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.014974930137351</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.449339984149038</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.973815466967813</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2961628908509543</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.093984172484445</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>2.793044191206016</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>2.896673104750462</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.7074688590989464</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.758427320683521</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.117064290111223</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.842094778299186</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,17 +931,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.9786838523729813</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.06263152793877454</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.263065003035702</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>-0.1099744124760502</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.2795629626439216</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.4954771362212923</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>0.1987062552624817</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.1114225434422885</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>1.162341081755007</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +969,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.3988005411244464</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5648759379384735</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1593121114173273</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.5689818064635055</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3026628762120885</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2724469807449462</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.3627194523672821</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.34031099506597</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.2144459435049924</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +1007,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>6.713092947185038</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.987514726112302</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.25657243237244</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>0.8523083289623853</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.417509740655937</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2.24384547124816</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>1.145775345955857</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.7179396451753934</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>3.13690110329951</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,18 +1049,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.3875401128599443</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2708687451301481</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5846072092213245</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6880199210790625</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.009170480002677332</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.125338453560772</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>1.486378490436553</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.470996827950255</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.151172809362361</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.1910883394262599</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.9911595597851065</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.5730000084314303</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1093,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>0.01807234236814698</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.01909210327210061</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1943504839967818</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.2051127130941297</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2120558159089518</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.0855157600342619</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.9671742479756954</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.008238012679907206</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.03687290488937721</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.01428008451811237</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.6680144476898517</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2224944469234256</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1137,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>1.164541096743308</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.6524545912231836</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.106242148869683</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.483072176018815</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2312294807679126</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.3962752555776078</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>2.123587130624234</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1.031105050181496</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.4352115889373628</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.4206648960949213</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>1.379191266735973</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.9871560937660024</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
